--- a/Documents/Расчёты.xlsx
+++ b/Documents/Расчёты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turbo\Desktop\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFLB_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A9AA0A-3E91-44FB-B606-CBE229476023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA072E-A841-4305-BC1A-477A3D11E550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,27 +1312,27 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1373,27 +1373,27 @@
       </c>
       <c r="B24" s="8">
         <f>SUM(B19:B23)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>

--- a/Documents/Расчёты.xlsx
+++ b/Documents/Расчёты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFLB_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA072E-A841-4305-BC1A-477A3D11E550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133E25F-50F0-48D2-9A82-44282702BF07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,6 +297,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -299,12 +307,24 @@
   <dxfs count="19">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -322,13 +342,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -411,10 +431,10 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Кол-во VU's" dataDxfId="11">
       <calculatedColumnFormula>ROUNDUP(Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[1 VU в час]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Расч 1 VU в час" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Расч 1 VU в час" dataDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Расчет пейсинг" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Расчет пейсинг" dataDxfId="0">
       <calculatedColumnFormula>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -423,34 +443,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица3" displayName="Таблица3" ref="A9:K14" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица3" displayName="Таблица3" ref="A9:K14" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A9:K14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Тип операции"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Интенсивность 100%"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Время опер."/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Время с запасом" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Время с запасом" dataDxfId="9">
       <calculatedColumnFormula>Таблица3[[#This Row],[Время опер.]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Интен. На ступени" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Интен. На ступени" dataDxfId="8">
       <calculatedColumnFormula>Таблица3[[#This Row],[Интенсивность 100%]]*$B$16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="1 VU в час" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="1 VU в час" dataDxfId="7">
       <calculatedColumnFormula>3600/Таблица3[[#This Row],[Время с запасом]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Кол-во VU's на ступени" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Кол-во VU's на ступени" dataDxfId="6">
       <calculatedColumnFormula>ROUNDUP(Таблица3[[#This Row],[Интен. На ступени]]/Таблица3[[#This Row],[1 VU в час]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Всего VU's" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Всего VU's" dataDxfId="5">
       <calculatedColumnFormula>Таблица3[[#This Row],[Кол-во VU''s на ступени]]/$B$16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Расч. 1 VU час" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Расч. 1 VU час" dataDxfId="4">
       <calculatedColumnFormula>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Расч. Пейсинг" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Расч. Пейсинг" dataDxfId="2">
       <calculatedColumnFormula>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Проверка" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Проверка" dataDxfId="3">
       <calculatedColumnFormula>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -724,7 +744,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +815,7 @@
         <f>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</f>
         <v>23</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>156.52199999999999</v>
       </c>
@@ -826,7 +846,7 @@
         <f>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</f>
         <v>56</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>64.286000000000001</v>
       </c>
@@ -857,7 +877,7 @@
         <f>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</f>
         <v>12</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="17">
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>300</v>
       </c>
@@ -888,7 +908,7 @@
         <f>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</f>
         <v>12</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="17">
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>300</v>
       </c>
@@ -919,7 +939,7 @@
         <f>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</f>
         <v>12</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="17">
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>300</v>
       </c>
@@ -999,7 +1019,7 @@
         <f>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="16">
         <f>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</f>
         <v>900</v>
       </c>
@@ -1042,7 +1062,7 @@
         <f>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="16">
         <f>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</f>
         <v>360</v>
       </c>
@@ -1085,7 +1105,7 @@
         <f>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="17">
         <f>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</f>
         <v>1800</v>
       </c>
@@ -1128,7 +1148,7 @@
         <f>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="17">
         <f>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</f>
         <v>1800</v>
       </c>
@@ -1171,7 +1191,7 @@
         <f>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="17">
         <f>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</f>
         <v>1800</v>
       </c>
@@ -1450,7 +1470,7 @@
       <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="12">
         <v>23</v>
       </c>
       <c r="C28" s="12"/>
@@ -1466,7 +1486,7 @@
       <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>56</v>
       </c>
       <c r="C29" s="12">
@@ -1485,7 +1505,7 @@
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="12">
         <v>12</v>
       </c>
       <c r="C30" s="12">
@@ -1510,7 +1530,7 @@
       <c r="A31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>12</v>
       </c>
       <c r="C31" s="12">
@@ -1532,7 +1552,7 @@
       <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="12">
         <v>12</v>
       </c>
       <c r="D32" s="12"/>

--- a/Documents/Расчёты.xlsx
+++ b/Documents/Расчёты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFLB_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133E25F-50F0-48D2-9A82-44282702BF07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC3FCB-E2AB-49AF-8F4C-C28813E97D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Тип операции</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Удаления из корзины</t>
+  </si>
+  <si>
+    <t>Jmeter Throughput</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -319,6 +331,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -328,27 +358,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -416,26 +425,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:H6" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:I6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Тип операции"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Интенсивность"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Время операции"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Время с запасом" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Время с запасом" dataDxfId="15">
       <calculatedColumnFormula>Таблица2[[#This Row],[Время операции]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="1 VU в час" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="1 VU в час" dataDxfId="14">
       <calculatedColumnFormula>3600/Таблица2[[#This Row],[Время с запасом]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Кол-во VU's" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Кол-во VU's" dataDxfId="13">
       <calculatedColumnFormula>ROUNDUP(Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[1 VU в час]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Расч 1 VU в час" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Расч 1 VU в час" dataDxfId="12">
       <calculatedColumnFormula>Таблица2[[#This Row],[Интенсивность]]/Таблица2[[#This Row],[Кол-во VU''s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Расчет пейсинг" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Расчет пейсинг" dataDxfId="11">
       <calculatedColumnFormula>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E4A09659-43BF-49F4-B618-9369536D0C5C}" name="Jmeter Throughput" dataDxfId="1">
+      <calculatedColumnFormula>Таблица2[[#This Row],[Расч 1 VU в час]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -443,9 +455,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица3" displayName="Таблица3" ref="A9:K14" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A9:K14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица3" displayName="Таблица3" ref="A9:L14" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A9:L14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Тип операции"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Интенсивность 100%"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Время опер."/>
@@ -467,11 +479,14 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Расч. 1 VU час" dataDxfId="4">
       <calculatedColumnFormula>Таблица3[[#This Row],[Интенсивность 100%]]/Таблица3[[#This Row],[Всего VU''s]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Расч. Пейсинг" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Расч. Пейсинг" dataDxfId="3">
       <calculatedColumnFormula>ROUND(3600/Таблица3[[#This Row],[Расч. 1 VU час]], 3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Проверка" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Проверка" dataDxfId="2">
       <calculatedColumnFormula>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{582FB5E0-E7EE-472F-AD24-542D2304BF66}" name="Jmeter Throughput" dataDxfId="0">
+      <calculatedColumnFormula>Таблица3[[#This Row],[Расч. 1 VU час]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -744,7 +759,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,7 +775,8 @@
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="18" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="62.45" customHeight="1">
@@ -788,6 +804,9 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
@@ -819,6 +838,10 @@
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>156.52199999999999</v>
       </c>
+      <c r="I2" s="3">
+        <f>Таблица2[[#This Row],[Расч 1 VU в час]]/60</f>
+        <v>0.38333333333333336</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -850,6 +873,10 @@
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>64.286000000000001</v>
       </c>
+      <c r="I3" s="3">
+        <f>Таблица2[[#This Row],[Расч 1 VU в час]]/60</f>
+        <v>0.93333333333333335</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -881,6 +908,10 @@
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>300</v>
       </c>
+      <c r="I4" s="3">
+        <f>Таблица2[[#This Row],[Расч 1 VU в час]]/60</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -912,6 +943,10 @@
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>300</v>
       </c>
+      <c r="I5" s="3">
+        <f>Таблица2[[#This Row],[Расч 1 VU в час]]/60</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -942,6 +977,10 @@
       <c r="H6" s="17">
         <f>ROUND(3600/Таблица2[[#This Row],[Расч 1 VU в час]], 3)</f>
         <v>300</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Таблица2[[#This Row],[Расч 1 VU в час]]/60</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="0.75" customHeight="1"/>
@@ -979,7 +1018,9 @@
       <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1027,6 +1068,10 @@
         <f>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>20</v>
       </c>
+      <c r="L10" s="3">
+        <f>Таблица3[[#This Row],[Расч. 1 VU час]]/60</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -1070,6 +1115,10 @@
         <f>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>50</v>
       </c>
+      <c r="L11" s="3">
+        <f>Таблица3[[#This Row],[Расч. 1 VU час]]/60</f>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -1113,6 +1162,10 @@
         <f>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>10</v>
       </c>
+      <c r="L12" s="3">
+        <f>Таблица3[[#This Row],[Расч. 1 VU час]]/60</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -1156,6 +1209,10 @@
         <f>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>10</v>
       </c>
+      <c r="L13" s="3">
+        <f>Таблица3[[#This Row],[Расч. 1 VU час]]/60</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -1198,6 +1255,10 @@
       <c r="K14" s="3">
         <f>3600/Таблица3[[#This Row],[Расч. Пейсинг]]*Таблица3[[#This Row],[Всего VU''s]]</f>
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <f>Таблица3[[#This Row],[Расч. 1 VU час]]/60</f>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1597,16 +1658,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A10:A14">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A23">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A25">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
